--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="133">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -31,19 +31,22 @@
     <t xml:space="preserve">Description</t>
   </si>
   <si>
+    <t xml:space="preserve">Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created At</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completion Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created By</t>
+  </si>
+  <si>
     <t xml:space="preserve">Team Members</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tags</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Created At</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completion Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Created By</t>
   </si>
   <si>
     <t xml:space="preserve">Category</t>
@@ -496,7 +499,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -517,10 +520,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -530,7 +533,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -556,27 +559,27 @@
         <v>7</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>43891</v>
@@ -585,30 +588,30 @@
         <v>43900</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>43892</v>
@@ -617,30 +620,30 @@
         <v>43901</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>43893</v>
@@ -649,30 +652,30 @@
         <v>43902</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>43894</v>
@@ -681,30 +684,30 @@
         <v>43903</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>43895</v>
@@ -713,30 +716,30 @@
         <v>43904</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>43896</v>
@@ -745,30 +748,30 @@
         <v>43905</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>43897</v>
@@ -777,30 +780,30 @@
         <v>43906</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>43898</v>
@@ -809,30 +812,30 @@
         <v>43907</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>43899</v>
@@ -841,30 +844,30 @@
         <v>43908</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>43900</v>
@@ -873,30 +876,30 @@
         <v>43909</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>43901</v>
@@ -905,30 +908,30 @@
         <v>43910</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F13" s="1" t="n">
         <v>43902</v>
@@ -937,30 +940,30 @@
         <v>43911</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>43903</v>
@@ -969,30 +972,30 @@
         <v>43912</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>43904</v>
@@ -1001,30 +1004,30 @@
         <v>43913</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>43905</v>
@@ -1033,30 +1036,30 @@
         <v>43914</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>43906</v>
@@ -1065,30 +1068,30 @@
         <v>43915</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>43907</v>
@@ -1097,30 +1100,30 @@
         <v>43916</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F19" s="1" t="n">
         <v>43908</v>
@@ -1129,30 +1132,30 @@
         <v>43917</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>43909</v>
@@ -1161,30 +1164,30 @@
         <v>43918</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F21" s="1" t="n">
         <v>43910</v>
@@ -1193,30 +1196,30 @@
         <v>43919</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>43911</v>
@@ -1225,30 +1228,30 @@
         <v>43920</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F23" s="1" t="n">
         <v>43912</v>
@@ -1257,30 +1260,30 @@
         <v>43921</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F24" s="1" t="n">
         <v>43913</v>
@@ -1289,15 +1292,17 @@
         <v>43922</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="135">
   <si>
     <t>id</t>
   </si>
@@ -373,10 +373,7 @@
     <t>Idea 21</t>
   </si>
   <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Neque convallis a cras semper auctor. Lorem ipsum dolor sit amet consectetur adipiscing. Morbi tincidunt ornare massa eget egestas purus viverra accumsan. Non pulvinar neque laoreet suspendisse. Aliquam vestibulum morbi blandit cursus risus. Aenean et tortor at risus viverra adipiscing. Id venenatis a condimentum vitae sapien pellentesque habitant morbi. Feugiat in ante metus dictum at tempor. Pretium quam vulputate dignissim suspendisse in. Description 21</t>
-  </si>
-  <si>
-    <t>Team 21</t>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Neque convallis a cras semper auctor.</t>
   </si>
   <si>
     <t>Tag 21</t>
@@ -1170,33 +1167,27 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
+    <row r="22" ht="13.8" customHeight="1" hidden="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>118</v>
       </c>
       <c r="C22" t="s">
         <v>119</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>120</v>
       </c>
-      <c r="E22" t="s">
-        <v>121</v>
-      </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>43911</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="1">
         <v>43920</v>
       </c>
       <c r="H22" t="s">
         <v>96</v>
       </c>
       <c r="I22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J22" t="s">
         <v>44</v>
@@ -1204,13 +1195,13 @@
     </row>
     <row r="23" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" t="s">
         <v>123</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>124</v>
-      </c>
-      <c r="E23" t="s">
-        <v>125</v>
       </c>
       <c r="F23" s="1">
         <v>43891.34726608796</v>
@@ -1219,24 +1210,24 @@
         <v>43900.77083333333</v>
       </c>
       <c r="H23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I23" t="s">
         <v>126</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>127</v>
-      </c>
-      <c r="J23" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" t="s">
         <v>129</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>130</v>
-      </c>
-      <c r="E24" t="s">
-        <v>131</v>
       </c>
       <c r="F24" s="1">
         <v>43913</v>
@@ -1248,21 +1239,21 @@
         <v>96</v>
       </c>
       <c r="I24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J24" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" ht="13.8" customHeight="1" hidden="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" t="s">
         <v>124</v>
-      </c>
-      <c r="E25" t="s">
-        <v>125</v>
       </c>
       <c r="F25" s="1">
         <v>43891.34726608796</v>
@@ -1271,28 +1262,28 @@
         <v>43900.77083333333</v>
       </c>
       <c r="H25" t="s">
+        <v>125</v>
+      </c>
+      <c r="I25" t="s">
         <v>126</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>127</v>
-      </c>
-      <c r="J25" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" t="s">
         <v>134</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>124</v>
-      </c>
-      <c r="D27" t="s">
-        <v>135</v>
-      </c>
-      <c r="E27" t="s">
-        <v>125</v>
       </c>
       <c r="F27" s="1">
         <v>43891.34726608796</v>
@@ -1301,13 +1292,13 @@
         <v>43900.77083333333</v>
       </c>
       <c r="H27" t="s">
+        <v>125</v>
+      </c>
+      <c r="I27" t="s">
         <v>126</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>127</v>
-      </c>
-      <c r="J27" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="ideas" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="members" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="teams" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="159">
   <si>
     <t>id</t>
   </si>
@@ -49,75 +51,51 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Idea 1 Edited</t>
-  </si>
-  <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Neque convallis a cras semper auctor. Lorem ipsum dolor sit amet consectetur adipiscing. Morbi tincidunt ornare massa eget egestas purus viverra accumsan. Non pulvinar neque laoreet suspendisse. Aliquam vestibulum morbi blandit cursus risus. Aenean et tortor at risus viverra adipiscing. Id venenatis a condimentum vitae sapien pellentesque habitant morbi. Feugiat in ante metus dictum at tempor. Pretium quam vulputate dignissim suspendisse in. Description 1</t>
-  </si>
-  <si>
-    <t>Tag 1</t>
+    <t>Idea 2</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Neque convallis a cras semper auctor. Lorem ipsum dolor sit amet consectetur adipiscing. Morbi tincidunt ornare massa eget egestas purus viverra accumsan. Non pulvinar neque laoreet suspendisse. Aliquam vestibulum morbi blandit cursus risus. Aenean et tortor at risus viverra adipiscing. Id venenatis a condimentum vitae sapien pellentesque habitant morbi. Feugiat in ante metus dictum at tempor. Pretium quam vulputate dignissim suspendisse in. Description 2</t>
+  </si>
+  <si>
+    <t>Team 2</t>
+  </si>
+  <si>
+    <t>Tag 2</t>
   </si>
   <si>
     <t>Team Member 1</t>
   </si>
   <si>
-    <t>Team Member 1, Team Member 2, Team Member 3</t>
-  </si>
-  <si>
-    <t>Category 1</t>
-  </si>
-  <si>
-    <t>Idea 2</t>
-  </si>
-  <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Neque convallis a cras semper auctor. Lorem ipsum dolor sit amet consectetur adipiscing. Morbi tincidunt ornare massa eget egestas purus viverra accumsan. Non pulvinar neque laoreet suspendisse. Aliquam vestibulum morbi blandit cursus risus. Aenean et tortor at risus viverra adipiscing. Id venenatis a condimentum vitae sapien pellentesque habitant morbi. Feugiat in ante metus dictum at tempor. Pretium quam vulputate dignissim suspendisse in. Description 2</t>
-  </si>
-  <si>
-    <t>Team 2</t>
-  </si>
-  <si>
-    <t>Tag 2</t>
-  </si>
-  <si>
     <t>Team Member 1, Team Member 2, Team Member 4</t>
   </si>
   <si>
     <t>Category 2</t>
   </si>
   <si>
-    <t>Idea 3</t>
-  </si>
-  <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Neque convallis a cras semper auctor. Lorem ipsum dolor sit amet consectetur adipiscing. Morbi tincidunt ornare massa eget egestas purus viverra accumsan. Non pulvinar neque laoreet suspendisse. Aliquam vestibulum morbi blandit cursus risus. Aenean et tortor at risus viverra adipiscing. Id venenatis a condimentum vitae sapien pellentesque habitant morbi. Feugiat in ante metus dictum at tempor. Pretium quam vulputate dignissim suspendisse in. Description 3</t>
-  </si>
-  <si>
-    <t>Team 3</t>
-  </si>
-  <si>
-    <t>Tag 3</t>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>Idea 4</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Neque convallis a cras semper auctor. Lorem ipsum dolor sit amet consectetur adipiscing. Morbi tincidunt ornare massa eget egestas purus viverra accumsan. Non pulvinar neque laoreet suspendisse. Aliquam vestibulum morbi blandit cursus risus. Aenean et tortor at risus viverra adipiscing. Id venenatis a condimentum vitae sapien pellentesque habitant morbi. Feugiat in ante metus dictum at tempor. Pretium quam vulputate dignissim suspendisse in. Description 4</t>
+  </si>
+  <si>
+    <t>Team 4</t>
+  </si>
+  <si>
+    <t>Tag 4</t>
   </si>
   <si>
     <t>Team Member 2</t>
   </si>
   <si>
-    <t>Team Member 1, Team Member 2, Team Member 5</t>
-  </si>
-  <si>
-    <t>Idea 4</t>
-  </si>
-  <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Neque convallis a cras semper auctor. Lorem ipsum dolor sit amet consectetur adipiscing. Morbi tincidunt ornare massa eget egestas purus viverra accumsan. Non pulvinar neque laoreet suspendisse. Aliquam vestibulum morbi blandit cursus risus. Aenean et tortor at risus viverra adipiscing. Id venenatis a condimentum vitae sapien pellentesque habitant morbi. Feugiat in ante metus dictum at tempor. Pretium quam vulputate dignissim suspendisse in. Description 4</t>
-  </si>
-  <si>
-    <t>Team 4</t>
-  </si>
-  <si>
-    <t>Tag 4</t>
-  </si>
-  <si>
     <t>Team Member 1, Team Member 2, Team Member 6</t>
   </si>
   <si>
+    <t>dropped</t>
+  </si>
+  <si>
     <t>Idea 5</t>
   </si>
   <si>
@@ -422,16 +400,110 @@
   </si>
   <si>
     <t>fdhfjjgk</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>member.1@ideatree.io</t>
+  </si>
+  <si>
+    <t>member.2@ideatree.io</t>
+  </si>
+  <si>
+    <t>member.3@ideatree.io</t>
+  </si>
+  <si>
+    <t>member.4@ideatree.io</t>
+  </si>
+  <si>
+    <t>Team Member 5</t>
+  </si>
+  <si>
+    <t>member.5@ideatree.io</t>
+  </si>
+  <si>
+    <t>Team Member 6</t>
+  </si>
+  <si>
+    <t>member.6@ideatree.io</t>
+  </si>
+  <si>
+    <t>Team Member 7</t>
+  </si>
+  <si>
+    <t>member.7@ideatree.io</t>
+  </si>
+  <si>
+    <t>Team Member 8</t>
+  </si>
+  <si>
+    <t>member.8@ideatree.io</t>
+  </si>
+  <si>
+    <t>Team Member 9</t>
+  </si>
+  <si>
+    <t>member.9@ideatree.io</t>
+  </si>
+  <si>
+    <t>Team Member 10</t>
+  </si>
+  <si>
+    <t>member.10@ideatree.io</t>
+  </si>
+  <si>
+    <t>Team Member 11</t>
+  </si>
+  <si>
+    <t>member.11@ideatree.io</t>
+  </si>
+  <si>
+    <t>Team Member 12</t>
+  </si>
+  <si>
+    <t>member.12@ideatree.io</t>
+  </si>
+  <si>
+    <t>Team Member 13</t>
+  </si>
+  <si>
+    <t>member.13@ideatree.io</t>
+  </si>
+  <si>
+    <t>Team Member 14</t>
+  </si>
+  <si>
+    <t>member.14@ideatree.io</t>
+  </si>
+  <si>
+    <t>Team Name</t>
+  </si>
+  <si>
+    <t>Team One</t>
+  </si>
+  <si>
+    <t>Team Two</t>
+  </si>
+  <si>
+    <t>Team Three</t>
+  </si>
+  <si>
+    <t>Team Four</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -441,6 +513,13 @@
     </font>
     <font>
       <charset val="1"/>
+      <family val="2"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <charset val="1"/>
+      <color rgb="FF0000FF"/>
       <family val="2"/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -466,10 +545,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,30 +617,36 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" ht="12.8" customHeight="1" hidden="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="G2" s="1">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" ht="12.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -567,16 +654,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2">
         <v>43892</v>
@@ -585,45 +672,45 @@
         <v>43901</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" ht="12.8" customHeight="1" hidden="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="J3" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" ht="12.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="F4" s="1">
+        <v>43894</v>
+      </c>
+      <c r="G4" s="1">
+        <v>43903</v>
+      </c>
+      <c r="H4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="I4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2">
-        <v>43893</v>
-      </c>
-      <c r="G4" s="2">
-        <v>43902</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" ht="12.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -631,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2">
         <v>43894</v>
@@ -649,13 +736,13 @@
         <v>43903</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" ht="12.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -663,16 +750,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2">
         <v>43895</v>
@@ -681,13 +768,13 @@
         <v>43904</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" ht="12.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -695,16 +782,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F7" s="2">
         <v>43896</v>
@@ -713,13 +800,13 @@
         <v>43905</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" ht="12.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -727,16 +814,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F8" s="2">
         <v>43897</v>
@@ -745,13 +832,13 @@
         <v>43906</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" ht="12.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -759,16 +846,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F9" s="2">
         <v>43898</v>
@@ -777,13 +864,13 @@
         <v>43907</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" ht="12.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -791,16 +878,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F10" s="2">
         <v>43899</v>
@@ -809,13 +896,13 @@
         <v>43908</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -823,16 +910,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F11" s="2">
         <v>43900</v>
@@ -841,13 +928,13 @@
         <v>43909</v>
       </c>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="J11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -855,16 +942,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F12" s="2">
         <v>43901</v>
@@ -873,13 +960,13 @@
         <v>43910</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I12" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -887,16 +974,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F13" s="2">
         <v>43902</v>
@@ -905,13 +992,13 @@
         <v>43911</v>
       </c>
       <c r="H13" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I13" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -919,16 +1006,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F14" s="2">
         <v>43903</v>
@@ -937,13 +1024,13 @@
         <v>43912</v>
       </c>
       <c r="H14" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I14" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -951,16 +1038,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F15" s="2">
         <v>43904</v>
@@ -969,13 +1056,13 @@
         <v>43913</v>
       </c>
       <c r="H15" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I15" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -983,16 +1070,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F16" s="2">
         <v>43905</v>
@@ -1001,13 +1088,13 @@
         <v>43914</v>
       </c>
       <c r="H16" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I16" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J16" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1015,16 +1102,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F17" s="2">
         <v>43906</v>
@@ -1033,13 +1120,13 @@
         <v>43915</v>
       </c>
       <c r="H17" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="I17" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1047,16 +1134,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F18" s="2">
         <v>43907</v>
@@ -1065,13 +1152,13 @@
         <v>43916</v>
       </c>
       <c r="H18" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="I18" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="J18" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1079,16 +1166,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F19" s="2">
         <v>43908</v>
@@ -1097,13 +1184,13 @@
         <v>43917</v>
       </c>
       <c r="H19" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="I19" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="J19" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1111,16 +1198,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F20" s="2">
         <v>43909</v>
@@ -1129,13 +1216,13 @@
         <v>43918</v>
       </c>
       <c r="H20" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I20" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="J20" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1143,16 +1230,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F21" s="2">
         <v>43910</v>
@@ -1161,13 +1248,13 @@
         <v>43919</v>
       </c>
       <c r="H21" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I21" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="J21" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1175,16 +1262,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E22" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F22" s="2">
         <v>43911</v>
@@ -1193,121 +1280,442 @@
         <v>43920</v>
       </c>
       <c r="H22" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="I22" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J22" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E23" t="s">
-        <v>125</v>
-      </c>
-      <c r="F23" s="1">
+        <v>117</v>
+      </c>
+      <c r="F23" s="3">
         <v>43891.34726608796</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="3">
         <v>43900.77083333333</v>
       </c>
       <c r="H23" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="I23" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="J23" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="3">
+        <v>43913</v>
+      </c>
+      <c r="G24" s="3">
+        <v>43922</v>
+      </c>
+      <c r="H24" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" t="s">
+        <v>124</v>
+      </c>
+      <c r="J24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="3">
+        <v>43891.34726608796</v>
+      </c>
+      <c r="G25" s="3">
+        <v>43900.77083333333</v>
+      </c>
+      <c r="H25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I25" t="s">
+        <v>119</v>
+      </c>
+      <c r="J25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" ht="12.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="3">
+        <v>43891.34726608796</v>
+      </c>
+      <c r="G27" s="3">
+        <v>43900.77083333333</v>
+      </c>
+      <c r="H27" t="s">
+        <v>118</v>
+      </c>
+      <c r="I27" t="s">
+        <v>119</v>
+      </c>
+      <c r="J27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="0" copies="1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="normal">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="12.8" customHeight="1" hidden="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" t="s">
         <v>129</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="14.9" customHeight="1" hidden="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E24" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="14.9" customHeight="1" hidden="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F24" s="1">
-        <v>43913</v>
-      </c>
-      <c r="G24" s="1">
-        <v>43922</v>
-      </c>
-      <c r="H24" t="s">
-        <v>96</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" ht="14.9" customHeight="1" hidden="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="J24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" ht="13.8" customHeight="1" hidden="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="14.9" customHeight="1" hidden="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C25" t="s">
-        <v>124</v>
-      </c>
-      <c r="E25" t="s">
-        <v>125</v>
-      </c>
-      <c r="F25" s="1">
-        <v>43891.34726608796</v>
-      </c>
-      <c r="G25" s="1">
-        <v>43900.77083333333</v>
-      </c>
-      <c r="H25" t="s">
-        <v>126</v>
-      </c>
-      <c r="I25" t="s">
-        <v>127</v>
-      </c>
-      <c r="J25" t="s">
-        <v>128</v>
-      </c>
-    </row>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" ht="14.9" customHeight="1" hidden="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" ht="14.9" customHeight="1" hidden="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" ht="14.9" customHeight="1" hidden="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" ht="14.9" customHeight="1" hidden="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" ht="14.9" customHeight="1" hidden="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" ht="14.9" customHeight="1" hidden="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" ht="14.9" customHeight="1" hidden="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" ht="14.9" customHeight="1" hidden="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" ht="14.9" customHeight="1" hidden="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" ht="14.9" customHeight="1" hidden="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" ht="13.8" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="13.8" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="13.8" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="13.8" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="13.8" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="13.8" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="26" ht="13.8" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C27" t="s">
-        <v>124</v>
-      </c>
-      <c r="D27" t="s">
-        <v>135</v>
-      </c>
-      <c r="E27" t="s">
-        <v>125</v>
-      </c>
-      <c r="F27" s="1">
-        <v>43891.34726608796</v>
-      </c>
-      <c r="G27" s="1">
-        <v>43900.77083333333</v>
-      </c>
-      <c r="H27" t="s">
-        <v>126</v>
-      </c>
-      <c r="I27" t="s">
-        <v>127</v>
-      </c>
-      <c r="J27" t="s">
-        <v>128</v>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C13" r:id="rId12"/>
+    <hyperlink ref="C14" r:id="rId13"/>
+    <hyperlink ref="C15" r:id="rId14"/>
+  </hyperlinks>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="0" copies="1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="normal">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="12.8" customHeight="1" hidden="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" ht="12.8" customHeight="1" hidden="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" ht="12.8" customHeight="1" hidden="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" ht="12.8" customHeight="1" hidden="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" ht="12.8" customHeight="1" hidden="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
   <si>
     <t>id</t>
   </si>
@@ -81,57 +81,60 @@
     <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Neque convallis a cras semper auctor. Lorem ipsum dolor sit amet consectetur adipiscing. Morbi tincidunt ornare massa eget egestas purus viverra accumsan. Non pulvinar neque laoreet suspendisse. Aliquam vestibulum morbi blandit cursus risus. Aenean et tortor at risus viverra adipiscing. Id venenatis a condimentum vitae sapien pellentesque habitant morbi. Feugiat in ante metus dictum at tempor. Pretium quam vulputate dignissim suspendisse in. Description 6</t>
   </si>
   <si>
+    <t>Team One</t>
+  </si>
+  <si>
+    <t>Tag 6</t>
+  </si>
+  <si>
+    <t>Team Member 2</t>
+  </si>
+  <si>
+    <t>Team Member 1, Team Member 2, Team Member 8</t>
+  </si>
+  <si>
+    <t>Category 3</t>
+  </si>
+  <si>
+    <t>ongoing</t>
+  </si>
+  <si>
+    <t>Idea 4</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Neque convallis a cras semper auctor. Lorem ipsum dolor sit amet consectetur adipiscing. Morbi tincidunt ornare massa eget egestas purus viverra accumsan. Non pulvinar neque laoreet suspendisse. Aliquam vestibulum morbi blandit cursus risus. Aenean et tortor at risus viverra adipiscing. Id venenatis a condimentum vitae sapien pellentesque habitant morbi. Feugiat in ante metus dictum at tempor. Pretium quam vulputate dignissim suspendisse in. Description 4</t>
+  </si>
+  <si>
+    <t>Team 4</t>
+  </si>
+  <si>
+    <t>Tag 4</t>
+  </si>
+  <si>
+    <t>Team Member 1, Team Member 2, Team Member 6</t>
+  </si>
+  <si>
+    <t>Idea 5</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Neque convallis a cras semper auctor. Lorem ipsum dolor sit amet consectetur adipiscing. Morbi tincidunt ornare massa eget egestas purus viverra accumsan. Non pulvinar neque laoreet suspendisse. Aliquam vestibulum morbi blandit cursus risus. Aenean et tortor at risus viverra adipiscing. Id venenatis a condimentum vitae sapien pellentesque habitant morbi. Feugiat in ante metus dictum at tempor. Pretium quam vulputate dignissim suspendisse in. Description 5</t>
+  </si>
+  <si>
+    <t>Team 5</t>
+  </si>
+  <si>
+    <t>Tag 5</t>
+  </si>
+  <si>
+    <t>Team Member 1, Team Member 2, Team Member 7</t>
+  </si>
+  <si>
+    <t>Idea 6</t>
+  </si>
+  <si>
     <t>Team 6</t>
   </si>
   <si>
-    <t>Tag 6</t>
-  </si>
-  <si>
-    <t>Team Member 2</t>
-  </si>
-  <si>
-    <t>Team Member 1, Team Member 2, Team Member 8</t>
-  </si>
-  <si>
-    <t>Category 3</t>
-  </si>
-  <si>
-    <t>ongoing</t>
-  </si>
-  <si>
-    <t>Idea 4</t>
-  </si>
-  <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Neque convallis a cras semper auctor. Lorem ipsum dolor sit amet consectetur adipiscing. Morbi tincidunt ornare massa eget egestas purus viverra accumsan. Non pulvinar neque laoreet suspendisse. Aliquam vestibulum morbi blandit cursus risus. Aenean et tortor at risus viverra adipiscing. Id venenatis a condimentum vitae sapien pellentesque habitant morbi. Feugiat in ante metus dictum at tempor. Pretium quam vulputate dignissim suspendisse in. Description 4</t>
-  </si>
-  <si>
-    <t>Team 4</t>
-  </si>
-  <si>
-    <t>Tag 4</t>
-  </si>
-  <si>
-    <t>Team Member 1, Team Member 2, Team Member 6</t>
-  </si>
-  <si>
-    <t>Idea 5</t>
-  </si>
-  <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Neque convallis a cras semper auctor. Lorem ipsum dolor sit amet consectetur adipiscing. Morbi tincidunt ornare massa eget egestas purus viverra accumsan. Non pulvinar neque laoreet suspendisse. Aliquam vestibulum morbi blandit cursus risus. Aenean et tortor at risus viverra adipiscing. Id venenatis a condimentum vitae sapien pellentesque habitant morbi. Feugiat in ante metus dictum at tempor. Pretium quam vulputate dignissim suspendisse in. Description 5</t>
-  </si>
-  <si>
-    <t>Team 5</t>
-  </si>
-  <si>
-    <t>Tag 5</t>
-  </si>
-  <si>
-    <t>Team Member 1, Team Member 2, Team Member 7</t>
-  </si>
-  <si>
-    <t>Idea 6</t>
-  </si>
-  <si>
     <t>Idea 7</t>
   </si>
   <si>
@@ -171,15 +174,15 @@
     <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Neque convallis a cras semper auctor. Lorem ipsum dolor sit amet consectetur adipiscing. Morbi tincidunt ornare massa eget egestas purus viverra accumsan. Non pulvinar neque laoreet suspendisse. Aliquam vestibulum morbi blandit cursus risus. Aenean et tortor at risus viverra adipiscing. Id venenatis a condimentum vitae sapien pellentesque habitant morbi. Feugiat in ante metus dictum at tempor. Pretium quam vulputate dignissim suspendisse in. Description 9</t>
   </si>
   <si>
-    <t>Team 9</t>
-  </si>
-  <si>
     <t>Tag 9</t>
   </si>
   <si>
     <t>Team Member 1, Team Member 2, Team Member 11</t>
   </si>
   <si>
+    <t>dropped</t>
+  </si>
+  <si>
     <t>Idea 10</t>
   </si>
   <si>
@@ -484,9 +487,6 @@
   </si>
   <si>
     <t>Team Name</t>
-  </si>
-  <si>
-    <t>Team One</t>
   </si>
   <si>
     <t>Team Two</t>
@@ -620,7 +620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" hidden="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" ht="12.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -684,7 +684,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" ht="12.8" customHeight="1" hidden="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" ht="12.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -791,7 +791,7 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
@@ -817,16 +817,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="2">
         <v>43897</v>
@@ -835,10 +835,10 @@
         <v>43906</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
         <v>17</v>
@@ -849,16 +849,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" s="2">
         <v>43898</v>
@@ -867,45 +867,45 @@
         <v>43907</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" ht="12.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
+    <row r="10" ht="12.8" customHeight="1" hidden="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>43899</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>43908</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I10" t="s">
         <v>53</v>
       </c>
       <c r="J10" t="s">
         <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -913,16 +913,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F11" s="2">
         <v>43900</v>
@@ -934,7 +934,7 @@
         <v>23</v>
       </c>
       <c r="I11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J11" t="s">
         <v>17</v>
@@ -945,16 +945,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F12" s="2">
         <v>43901</v>
@@ -966,7 +966,7 @@
         <v>23</v>
       </c>
       <c r="I12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J12" t="s">
         <v>25</v>
@@ -977,16 +977,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F13" s="2">
         <v>43902</v>
@@ -995,10 +995,10 @@
         <v>43911</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J13" t="s">
         <v>17</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F14" s="2">
         <v>43903</v>
@@ -1027,10 +1027,10 @@
         <v>43912</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s">
         <v>25</v>
@@ -1041,16 +1041,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F15" s="2">
         <v>43904</v>
@@ -1059,10 +1059,10 @@
         <v>43913</v>
       </c>
       <c r="H15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s">
         <v>25</v>
@@ -1073,16 +1073,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F16" s="2">
         <v>43905</v>
@@ -1091,13 +1091,13 @@
         <v>43914</v>
       </c>
       <c r="H16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1105,16 +1105,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F17" s="2">
         <v>43906</v>
@@ -1123,10 +1123,10 @@
         <v>43915</v>
       </c>
       <c r="H17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J17" t="s">
         <v>25</v>
@@ -1137,16 +1137,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F18" s="2">
         <v>43907</v>
@@ -1155,13 +1155,13 @@
         <v>43916</v>
       </c>
       <c r="H18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1169,16 +1169,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F19" s="2">
         <v>43908</v>
@@ -1187,13 +1187,13 @@
         <v>43917</v>
       </c>
       <c r="H19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1201,16 +1201,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F20" s="2">
         <v>43909</v>
@@ -1219,10 +1219,10 @@
         <v>43918</v>
       </c>
       <c r="H20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J20" t="s">
         <v>25</v>
@@ -1233,16 +1233,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F21" s="2">
         <v>43910</v>
@@ -1251,13 +1251,13 @@
         <v>43919</v>
       </c>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1265,16 +1265,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F22" s="2">
         <v>43911</v>
@@ -1283,10 +1283,10 @@
         <v>43920</v>
       </c>
       <c r="H22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J22" t="s">
         <v>25</v>
@@ -1294,13 +1294,13 @@
     </row>
     <row r="23" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F23" s="3">
         <v>43891.34726608796</v>
@@ -1309,24 +1309,24 @@
         <v>43900.77083333333</v>
       </c>
       <c r="H23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F24" s="3">
         <v>43913</v>
@@ -1335,24 +1335,24 @@
         <v>43922</v>
       </c>
       <c r="H24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F25" s="3">
         <v>43891.34726608796</v>
@@ -1361,27 +1361,27 @@
         <v>43900.77083333333</v>
       </c>
       <c r="H25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" ht="12.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F27" s="3">
         <v>43891.34726608796</v>
@@ -1390,13 +1390,13 @@
         <v>43900.77083333333</v>
       </c>
       <c r="H27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1446,7 +1446,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1460,7 +1460,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1471,10 +1471,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1485,10 +1485,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1499,10 +1499,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1513,10 +1513,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -1527,10 +1527,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1541,10 +1541,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -1555,10 +1555,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1569,10 +1569,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -1583,10 +1583,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -1597,10 +1597,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -1611,10 +1611,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -1625,10 +1625,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" ht="12.8" customHeight="1" hidden="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" ht="12.8" customHeight="1" hidden="1" spans="1:2" x14ac:dyDescent="0.25">

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="154">
   <si>
     <t>id</t>
   </si>
@@ -51,6 +51,30 @@
     <t>Status</t>
   </si>
   <si>
+    <t>Idea 18</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Neque convallis a cras semper auctor. Lorem ipsum dolor sit amet consectetur adipiscing. Morbi tincidunt ornare massa eget egestas purus viverra accumsan. Non pulvinar neque laoreet suspendisse. Aliquam vestibulum morbi blandit cursus risus. Aenean et tortor at risus viverra adipiscing. Id venenatis a condimentum vitae sapien pellentesque habitant morbi. Feugiat in ante metus dictum at tempor. Pretium quam vulputate dignissim suspendisse in. Description 18</t>
+  </si>
+  <si>
+    <t>Team Four</t>
+  </si>
+  <si>
+    <t>Tag 18</t>
+  </si>
+  <si>
+    <t>Team Member 4</t>
+  </si>
+  <si>
+    <t>Team Member 1, Team Member 2, Team Member 20</t>
+  </si>
+  <si>
+    <t>Category 4</t>
+  </si>
+  <si>
+    <t>ongoing</t>
+  </si>
+  <si>
     <t>Idea 2</t>
   </si>
   <si>
@@ -72,9 +96,6 @@
     <t>Category 2</t>
   </si>
   <si>
-    <t>completed</t>
-  </si>
-  <si>
     <t>Idea 6 ongoing</t>
   </si>
   <si>
@@ -96,9 +117,6 @@
     <t>Category 3</t>
   </si>
   <si>
-    <t>ongoing</t>
-  </si>
-  <si>
     <t>Idea 4</t>
   </si>
   <si>
@@ -258,24 +276,6 @@
     <t>Team Member 1, Team Member 2, Team Member 16</t>
   </si>
   <si>
-    <t>Idea 15</t>
-  </si>
-  <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Neque convallis a cras semper auctor. Lorem ipsum dolor sit amet consectetur adipiscing. Morbi tincidunt ornare massa eget egestas purus viverra accumsan. Non pulvinar neque laoreet suspendisse. Aliquam vestibulum morbi blandit cursus risus. Aenean et tortor at risus viverra adipiscing. Id venenatis a condimentum vitae sapien pellentesque habitant morbi. Feugiat in ante metus dictum at tempor. Pretium quam vulputate dignissim suspendisse in. Description 15</t>
-  </si>
-  <si>
-    <t>Team 15</t>
-  </si>
-  <si>
-    <t>Tag 15</t>
-  </si>
-  <si>
-    <t>Team Member 1, Team Member 2, Team Member 17</t>
-  </si>
-  <si>
-    <t>Category 4</t>
-  </si>
-  <si>
     <t>Idea 16</t>
   </si>
   <si>
@@ -288,9 +288,6 @@
     <t>Tag 16</t>
   </si>
   <si>
-    <t>Team Member 4</t>
-  </si>
-  <si>
     <t>Team Member 1, Team Member 2, Team Member 18</t>
   </si>
   <si>
@@ -309,21 +306,9 @@
     <t>Team Member 1, Team Member 2, Team Member 19</t>
   </si>
   <si>
-    <t>Idea 18</t>
-  </si>
-  <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Neque convallis a cras semper auctor. Lorem ipsum dolor sit amet consectetur adipiscing. Morbi tincidunt ornare massa eget egestas purus viverra accumsan. Non pulvinar neque laoreet suspendisse. Aliquam vestibulum morbi blandit cursus risus. Aenean et tortor at risus viverra adipiscing. Id venenatis a condimentum vitae sapien pellentesque habitant morbi. Feugiat in ante metus dictum at tempor. Pretium quam vulputate dignissim suspendisse in. Description 18</t>
-  </si>
-  <si>
     <t>Team 18</t>
   </si>
   <si>
-    <t>Tag 18</t>
-  </si>
-  <si>
-    <t>Team Member 1, Team Member 2, Team Member 20</t>
-  </si>
-  <si>
     <t>Idea 19</t>
   </si>
   <si>
@@ -493,9 +478,6 @@
   </si>
   <si>
     <t>Team Three</t>
-  </si>
-  <si>
-    <t>Team Four</t>
   </si>
 </sst>
 </file>
@@ -620,7 +602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" ht="12.8" customHeight="1" hidden="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -634,10 +616,10 @@
         <v>14</v>
       </c>
       <c r="F2" s="1">
-        <v>43892</v>
+        <v>43908</v>
       </c>
       <c r="G2" s="1">
-        <v>43901</v>
+        <v>43917</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -657,16 +639,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2">
         <v>43892</v>
@@ -675,27 +657,27 @@
         <v>43901</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" ht="12.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1">
         <v>43896</v>
@@ -704,16 +686,16 @@
         <v>43905</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" ht="12.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -721,16 +703,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F5" s="2">
         <v>43894</v>
@@ -739,13 +721,13 @@
         <v>43903</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" ht="12.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -753,16 +735,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F6" s="2">
         <v>43895</v>
@@ -771,13 +753,13 @@
         <v>43904</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" ht="12.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -785,16 +767,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2">
         <v>43896</v>
@@ -803,13 +785,13 @@
         <v>43905</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" ht="12.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -817,16 +799,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F8" s="2">
         <v>43897</v>
@@ -835,13 +817,13 @@
         <v>43906</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" ht="12.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -849,16 +831,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F9" s="2">
         <v>43898</v>
@@ -867,27 +849,27 @@
         <v>43907</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" ht="12.8" customHeight="1" hidden="1" spans="2:11" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" ht="12.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F10" s="1">
         <v>43899</v>
@@ -896,16 +878,16 @@
         <v>43908</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J10" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -913,16 +895,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F11" s="2">
         <v>43900</v>
@@ -931,13 +913,13 @@
         <v>43909</v>
       </c>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I11" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -945,16 +927,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F12" s="2">
         <v>43901</v>
@@ -963,13 +945,13 @@
         <v>43910</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="J12" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -977,16 +959,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F13" s="2">
         <v>43902</v>
@@ -995,13 +977,13 @@
         <v>43911</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I13" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="J13" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1009,16 +991,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F14" s="2">
         <v>43903</v>
@@ -1027,13 +1009,13 @@
         <v>43912</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I14" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1041,16 +1023,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F15" s="2">
         <v>43904</v>
@@ -1059,45 +1041,42 @@
         <v>43913</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I15" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" ht="13.8" customHeight="1" hidden="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="1">
+        <v>43908</v>
+      </c>
+      <c r="G16" s="1">
+        <v>43917</v>
+      </c>
+      <c r="H16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="2">
-        <v>43905</v>
-      </c>
-      <c r="G16" s="2">
-        <v>43914</v>
-      </c>
-      <c r="H16" t="s">
-        <v>43</v>
-      </c>
       <c r="I16" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="J16" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1123,13 +1102,13 @@
         <v>43915</v>
       </c>
       <c r="H17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" t="s">
         <v>90</v>
       </c>
-      <c r="I17" t="s">
-        <v>91</v>
-      </c>
       <c r="J17" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1137,16 +1116,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" t="s">
         <v>92</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>93</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>94</v>
-      </c>
-      <c r="E18" t="s">
-        <v>95</v>
       </c>
       <c r="F18" s="2">
         <v>43907</v>
@@ -1155,13 +1134,13 @@
         <v>43916</v>
       </c>
       <c r="H18" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J18" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1169,16 +1148,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="F19" s="2">
         <v>43908</v>
@@ -1187,13 +1166,13 @@
         <v>43917</v>
       </c>
       <c r="H19" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="J19" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1201,16 +1180,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F20" s="2">
         <v>43909</v>
@@ -1219,13 +1198,13 @@
         <v>43918</v>
       </c>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J20" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1233,16 +1212,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F21" s="2">
         <v>43910</v>
@@ -1251,13 +1230,13 @@
         <v>43919</v>
       </c>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I21" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J21" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1265,16 +1244,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F22" s="2">
         <v>43911</v>
@@ -1283,24 +1262,24 @@
         <v>43920</v>
       </c>
       <c r="H22" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J22" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E23" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F23" s="3">
         <v>43891.34726608796</v>
@@ -1309,24 +1288,24 @@
         <v>43900.77083333333</v>
       </c>
       <c r="H23" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I23" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="J23" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E24" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F24" s="3">
         <v>43913</v>
@@ -1335,24 +1314,24 @@
         <v>43922</v>
       </c>
       <c r="H24" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J24" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E25" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F25" s="3">
         <v>43891.34726608796</v>
@@ -1361,27 +1340,27 @@
         <v>43900.77083333333</v>
       </c>
       <c r="H25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I25" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="J25" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" ht="12.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D27" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F27" s="3">
         <v>43891.34726608796</v>
@@ -1390,13 +1369,13 @@
         <v>43900.77083333333</v>
       </c>
       <c r="H27" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I27" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="J27" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1429,10 +1408,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1443,10 +1422,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1457,10 +1436,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1471,10 +1450,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1485,10 +1464,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1499,10 +1478,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1513,10 +1492,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -1527,10 +1506,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1541,10 +1520,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -1555,10 +1534,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1569,10 +1548,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -1583,10 +1562,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -1597,10 +1576,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -1611,10 +1590,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -1625,10 +1604,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -1686,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" ht="12.8" customHeight="1" hidden="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1694,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" ht="12.8" customHeight="1" hidden="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1702,7 +1681,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" ht="12.8" customHeight="1" hidden="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1710,7 +1689,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" ht="12.8" customHeight="1" hidden="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1718,7 +1697,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="154">
   <si>
     <t>id</t>
   </si>
@@ -345,7 +345,7 @@
     <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Neque convallis a cras semper auctor. Lorem ipsum dolor sit amet consectetur adipiscing. Morbi tincidunt ornare massa eget egestas purus viverra accumsan. Non pulvinar neque laoreet suspendisse. Aliquam vestibulum morbi blandit cursus risus. Aenean et tortor at risus viverra adipiscing. Id venenatis a condimentum vitae sapien pellentesque habitant morbi. Feugiat in ante metus dictum at tempor. Pretium quam vulputate dignissim suspendisse in. Description 21</t>
   </si>
   <si>
-    <t>Team 21</t>
+    <t>Team Three</t>
   </si>
   <si>
     <t>Tag 21</t>
@@ -354,6 +354,9 @@
     <t>Team Member 1, Team Member 2, Team Member 23</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Edited Idea Title</t>
   </si>
   <si>
@@ -475,9 +478,6 @@
   </si>
   <si>
     <t>Team Two</t>
-  </si>
-  <si>
-    <t>Team Three</t>
   </si>
 </sst>
 </file>
@@ -602,7 +602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" hidden="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" ht="12.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" ht="13.8" customHeight="1" hidden="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>11</v>
       </c>
@@ -1239,10 +1239,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
+    <row r="22" ht="13.8" customHeight="1" hidden="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>107</v>
       </c>
@@ -1255,10 +1252,10 @@
       <c r="E22" t="s">
         <v>110</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>43911</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="1">
         <v>43920</v>
       </c>
       <c r="H22" t="s">
@@ -1270,16 +1267,19 @@
       <c r="J22" t="s">
         <v>32</v>
       </c>
+      <c r="K22" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F23" s="3">
         <v>43891.34726608796</v>
@@ -1288,24 +1288,24 @@
         <v>43900.77083333333</v>
       </c>
       <c r="H23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F24" s="3">
         <v>43913</v>
@@ -1317,7 +1317,7 @@
         <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J24" t="s">
         <v>17</v>
@@ -1325,13 +1325,13 @@
     </row>
     <row r="25" ht="13.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F25" s="3">
         <v>43891.34726608796</v>
@@ -1340,27 +1340,27 @@
         <v>43900.77083333333</v>
       </c>
       <c r="H25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" ht="12.8" customHeight="1" hidden="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F27" s="3">
         <v>43891.34726608796</v>
@@ -1369,13 +1369,13 @@
         <v>43900.77083333333</v>
       </c>
       <c r="H27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1408,10 +1408,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1425,7 +1425,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1439,7 +1439,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1453,7 +1453,7 @@
         <v>49</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1467,7 +1467,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1478,10 +1478,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1492,10 +1492,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -1506,10 +1506,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1520,10 +1520,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -1534,10 +1534,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1548,10 +1548,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -1562,10 +1562,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -1576,10 +1576,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -1590,10 +1590,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -1604,10 +1604,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" ht="12.8" customHeight="1" hidden="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1681,7 +1681,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" ht="12.8" customHeight="1" hidden="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1689,7 +1689,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" ht="12.8" customHeight="1" hidden="1" spans="1:2" x14ac:dyDescent="0.25">
